--- a/_templates/Digital-Bulletin-Board-with-Excel/Data.xlsx
+++ b/_templates/Digital-Bulletin-Board-with-Excel/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyanova\Documents\peakboard-templates.github.io\_templates\Digital-Bulletin-Board-with-Calender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyanova\Documents\peakboard-templates.github.io\_templates\Digital-Bulletin-Board-with-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3898CACB-EEB3-42DB-8316-DFE930D8931F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6696884-72F2-4708-8978-879244261A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Day</t>
   </si>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +557,104 @@
         <v>23</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44195</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80646277-4639-4846-8DC5-F8D5BEF9AC37}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
